--- a/ePICreator/Humalog.xlsx
+++ b/ePICreator/Humalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C920FB-C3E6-7347-BC8E-37CD2D912B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EADDBC-E74E-314F-AEEA-74AB2CAE3547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>conceptID</t>
-  </si>
-  <si>
-    <t>0d69fdcb-33cf-407f-8209-a6529856ab4f</t>
   </si>
   <si>
     <t>https://spor.ema.europa.eu/rmswi/</t>
@@ -1299,7 +1296,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1316,7 +1313,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1614,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7762C-AB2F-B34F-B02E-3A163776DCB2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1672,28 +1669,28 @@
     </row>
     <row r="2" spans="1:13">
       <c r="B2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2">
         <v>100000073864</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <v>200000002135</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2">
         <v>100000073633</v>
@@ -1745,28 +1742,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
         <v>74</v>
-      </c>
-      <c r="K1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" t="s">
-        <v>75</v>
       </c>
       <c r="M1" t="s">
         <v>37</v>
@@ -1778,26 +1775,26 @@
     <row r="2" spans="1:14" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
         <v>158</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2" s="16"/>
       <c r="I2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="L2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1849,10 +1846,10 @@
         <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1925,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1952,37 +1949,37 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>84</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>85</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>86</v>
-      </c>
-      <c r="O1" t="s">
-        <v>87</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
@@ -1991,44 +1988,42 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="J2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2072,13 +2067,13 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -2102,10 +2097,10 @@
     <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2122,10 +2117,10 @@
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -2142,10 +2137,10 @@
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -2162,10 +2157,10 @@
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -2182,10 +2177,10 @@
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -2194,10 +2189,10 @@
         <v>72072</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -2206,16 +2201,16 @@
         <v>100</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -2232,10 +2227,10 @@
     <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -2252,10 +2247,10 @@
     <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -2327,22 +2322,22 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="10">
         <v>100000073864</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="9">
         <v>200000002135</v>
@@ -2405,13 +2400,13 @@
         <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L1" t="s">
         <v>25</v>
@@ -2420,19 +2415,19 @@
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>143</v>
-      </c>
-      <c r="R1" t="s">
-        <v>144</v>
       </c>
       <c r="S1" t="s">
         <v>10</v>
@@ -2441,52 +2436,52 @@
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" t="s">
         <v>134</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>135</v>
       </c>
-      <c r="H2" t="s">
-        <v>136</v>
-      </c>
       <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O2" s="5">
         <v>100000072084</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2525,28 +2520,28 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
       <c r="M1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -2555,10 +2550,10 @@
     <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -2570,7 +2565,7 @@
         <v>220000000034</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
@@ -2579,33 +2574,33 @@
         <v>30</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" t="s">
         <v>114</v>
-      </c>
-      <c r="L2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="9">
         <v>220000000033</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
@@ -2614,33 +2609,33 @@
         <v>30</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" t="s">
         <v>121</v>
-      </c>
-      <c r="L3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="9">
         <v>220000000033</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -2649,13 +2644,13 @@
         <v>30</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2705,58 +2700,58 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
         <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O1" t="s">
         <v>35</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="W1" s="12" t="s">
         <v>10</v>
@@ -2765,16 +2760,16 @@
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -2783,13 +2778,13 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2">
         <v>123456</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="9">
         <v>100000073543</v>
@@ -2798,7 +2793,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N2" s="9">
         <v>200000003204</v>
@@ -2837,22 +2832,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -2861,10 +2856,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -2873,7 +2868,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -2882,10 +2877,10 @@
         <v>100000072062</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/Humalog.xlsx
+++ b/ePICreator/Humalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EADDBC-E74E-314F-AEEA-74AB2CAE3547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F42F0-BFAC-8343-90A4-C53CD338719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -1313,9 +1313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1353,7 +1353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1459,7 +1459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1601,7 +1601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1812,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1850,6 +1850,9 @@
       </c>
       <c r="D2" t="s">
         <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +1925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
